--- a/biology/Zoologie/German_rex/German_rex.xlsx
+++ b/biology/Zoologie/German_rex/German_rex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le german rex est une race de chat originaire de Prusse-Orientale (aujourd'hui en Russie baltique). Ce chat de taille moyenne est caractérisé par sa robe au poil court, ondulé et très doux.
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On pense que le german rex est la première race de chat à poils frisés ou ondulés. Le premier sujet a été découvert au tout début des années 1930 par Erna Schneider à Königsberg (actuelle Kaliningrad). Elle appela cette chatte Kater Munk et on pense que les parents étaient une mère persan de couleur bleue et un père bleu russe, cependant rien ne peut le prouver. Dans tous les cas, elle portait elle-même cette robe bleue. On pense qu'il y avait également deux mâles issu de la même portée mais qui furent castrés rapidement. On ne sait pas si elle eut des chatons, mais elle mourut en 1944 ou 1945. 
 Plus tard, en 1951, le docteur Rose Scheuer-Karpin remarqua dans le jardin de l'hôpital où elle travaillait à Buch (actuellement Pankow) une chatte frisée noire et blanche. Elle l'appela Lämmchen (qui signifie « petit agneau »). Elle eut des portées et c'est en la croisant avec un de ses fils que le docteur Scheuer-Karpin obtint d'autres chatons au poil ondulé et particulièrement doux. L'élevage commença ainsi. 
@@ -549,7 +563,9 @@
           <t>Standards</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement aux autres races à poils frisés comme le devon rex ou le cornish rex qui ont tendance à avoir un physique proche des chats orientaux, le german rex garde un physique proche de celui de l'européen.
 Le corps est musclé avec une poitrine large et un dos droit, les pattes sont de longueur moyenne et plutôt fines avec des pieds ronds. La queue est assez épaisse, de longueur moyenne et elle s'affine en allant vers l'extrémité.
